--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H2">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I2">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J2">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N2">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O2">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P2">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q2">
-        <v>9733.567050115171</v>
+        <v>8.7486094023585</v>
       </c>
       <c r="R2">
-        <v>9733.567050115171</v>
+        <v>34.994437609434</v>
       </c>
       <c r="S2">
-        <v>0.2326518094201916</v>
+        <v>0.0001675571260446371</v>
       </c>
       <c r="T2">
-        <v>0.2326518094201916</v>
+        <v>8.698946142943355E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H3">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I3">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J3">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N3">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O3">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P3">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q3">
-        <v>2931.762623199307</v>
+        <v>2.952999677093</v>
       </c>
       <c r="R3">
-        <v>2931.762623199307</v>
+        <v>17.717998062558</v>
       </c>
       <c r="S3">
-        <v>0.07007501726407027</v>
+        <v>5.655711854858379E-05</v>
       </c>
       <c r="T3">
-        <v>0.07007501726407027</v>
+        <v>4.404354561349375E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H4">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I4">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J4">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N4">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O4">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P4">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q4">
-        <v>3077.990706362047</v>
+        <v>2.940038660352</v>
       </c>
       <c r="R4">
-        <v>3077.990706362047</v>
+        <v>17.640231962112</v>
       </c>
       <c r="S4">
-        <v>0.07357016225672279</v>
+        <v>5.630888358736207E-05</v>
       </c>
       <c r="T4">
-        <v>0.07357016225672279</v>
+        <v>4.385023400006633E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H5">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I5">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J5">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N5">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O5">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P5">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q5">
-        <v>1939.124382375701</v>
+        <v>1.744021485149</v>
       </c>
       <c r="R5">
-        <v>1939.124382375701</v>
+        <v>10.464128910894</v>
       </c>
       <c r="S5">
-        <v>0.04634896887520595</v>
+        <v>3.340224878857741E-05</v>
       </c>
       <c r="T5">
-        <v>0.04634896887520595</v>
+        <v>2.601181789077926E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H6">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I6">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J6">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N6">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O6">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P6">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q6">
-        <v>6408.968678213214</v>
+        <v>5.794148864178999</v>
       </c>
       <c r="R6">
-        <v>6408.968678213214</v>
+        <v>34.76489318507399</v>
       </c>
       <c r="S6">
-        <v>0.1531872284668749</v>
+        <v>0.0001109720284568773</v>
       </c>
       <c r="T6">
-        <v>0.1531872284668749</v>
+        <v>8.64188580074822E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H7">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I7">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J7">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N7">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O7">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P7">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q7">
-        <v>1607.192145449734</v>
+        <v>1.4407374511035</v>
       </c>
       <c r="R7">
-        <v>1607.192145449734</v>
+        <v>5.762949804414</v>
       </c>
       <c r="S7">
-        <v>0.03841512148625679</v>
+        <v>2.759362266495733E-05</v>
       </c>
       <c r="T7">
-        <v>0.03841512148625679</v>
+        <v>1.432558812134434E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H8">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J8">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N8">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O8">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P8">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q8">
-        <v>6050.750568822036</v>
+        <v>55.42329529046967</v>
       </c>
       <c r="R8">
-        <v>6050.750568822036</v>
+        <v>332.539771742818</v>
       </c>
       <c r="S8">
-        <v>0.1446250959117854</v>
+        <v>0.001061490763582478</v>
       </c>
       <c r="T8">
-        <v>0.1446250959117854</v>
+        <v>0.0008266301053506879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H9">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J9">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N9">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O9">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P9">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q9">
-        <v>1822.49367252928</v>
+        <v>18.70754145819622</v>
       </c>
       <c r="R9">
-        <v>1822.49367252928</v>
+        <v>168.367873123766</v>
       </c>
       <c r="S9">
-        <v>0.04356126057258425</v>
+        <v>0.0003582948715542403</v>
       </c>
       <c r="T9">
-        <v>0.04356126057258425</v>
+        <v>0.000418530246678609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H10">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J10">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N10">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O10">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P10">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q10">
-        <v>1913.394536808448</v>
+        <v>18.62543215086933</v>
       </c>
       <c r="R10">
-        <v>1913.394536808448</v>
+        <v>167.628889357824</v>
       </c>
       <c r="S10">
-        <v>0.04573397386910976</v>
+        <v>0.0003567222788227028</v>
       </c>
       <c r="T10">
-        <v>0.04573397386910976</v>
+        <v>0.0004166932747426159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H11">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J11">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N11">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O11">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P11">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q11">
-        <v>1205.432489370648</v>
+        <v>11.04854649680422</v>
       </c>
       <c r="R11">
-        <v>1205.432489370648</v>
+        <v>99.436918471238</v>
       </c>
       <c r="S11">
-        <v>0.02881225848057922</v>
+        <v>0.0002116065094271993</v>
       </c>
       <c r="T11">
-        <v>0.02881225848057922</v>
+        <v>0.0002471811114828026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H12">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J12">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N12">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O12">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P12">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q12">
-        <v>3984.055452189274</v>
+        <v>36.70649913456644</v>
       </c>
       <c r="R12">
-        <v>3984.055452189274</v>
+        <v>330.358492211098</v>
       </c>
       <c r="S12">
-        <v>0.09522693016957713</v>
+        <v>0.0007030186420815451</v>
       </c>
       <c r="T12">
-        <v>0.09522693016957713</v>
+        <v>0.0008212078627128973</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H13">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J13">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N13">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O13">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P13">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q13">
-        <v>999.0909538318966</v>
+        <v>9.127212510713001</v>
       </c>
       <c r="R13">
-        <v>999.0909538318966</v>
+        <v>54.76327506427801</v>
       </c>
       <c r="S13">
-        <v>0.02388028119471223</v>
+        <v>0.0001748082954396663</v>
       </c>
       <c r="T13">
-        <v>0.02388028119471223</v>
+        <v>0.0001361310005070409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H14">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I14">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J14">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.1942775579295</v>
+        <v>44.3131355</v>
       </c>
       <c r="N14">
-        <v>44.1942775579295</v>
+        <v>88.626271</v>
       </c>
       <c r="O14">
-        <v>0.3787585679561413</v>
+        <v>0.3703811871594727</v>
       </c>
       <c r="P14">
-        <v>0.3787585679561413</v>
+        <v>0.2883888216544467</v>
       </c>
       <c r="Q14">
-        <v>61.98904076393961</v>
+        <v>11613.48025939898</v>
       </c>
       <c r="R14">
-        <v>61.98904076393961</v>
+        <v>69680.88155639388</v>
       </c>
       <c r="S14">
-        <v>0.001481662624164275</v>
+        <v>0.2224263635677262</v>
       </c>
       <c r="T14">
-        <v>0.001481662624164275</v>
+        <v>0.1732133096742426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H15">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I15">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J15">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.3113719191055</v>
+        <v>14.95742566666667</v>
       </c>
       <c r="N15">
-        <v>13.3113719191055</v>
+        <v>44.872277</v>
       </c>
       <c r="O15">
-        <v>0.1140825564803779</v>
+        <v>0.1250182144134117</v>
       </c>
       <c r="P15">
-        <v>0.1140825564803779</v>
+        <v>0.1460138505543343</v>
       </c>
       <c r="Q15">
-        <v>18.67117695126433</v>
+        <v>3920.006240841635</v>
       </c>
       <c r="R15">
-        <v>18.67117695126433</v>
+        <v>35280.05616757471</v>
       </c>
       <c r="S15">
-        <v>0.0004462786437234051</v>
+        <v>0.07507764372420092</v>
       </c>
       <c r="T15">
-        <v>0.0004462786437234051</v>
+        <v>0.08769945439529318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H16">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I16">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J16">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.9753057535143</v>
+        <v>14.891776</v>
       </c>
       <c r="N16">
-        <v>13.9753057535143</v>
+        <v>44.675328</v>
       </c>
       <c r="O16">
-        <v>0.1197726738945314</v>
+        <v>0.124469496720514</v>
       </c>
       <c r="P16">
-        <v>0.1197726738945314</v>
+        <v>0.1453729808731985</v>
       </c>
       <c r="Q16">
-        <v>19.60244280286193</v>
+        <v>3902.800933673302</v>
       </c>
       <c r="R16">
-        <v>19.60244280286193</v>
+        <v>35125.20840305971</v>
       </c>
       <c r="S16">
-        <v>0.0004685377686988532</v>
+        <v>0.07474812028918919</v>
       </c>
       <c r="T16">
-        <v>0.0004685377686988532</v>
+        <v>0.08731453254602534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H17">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I17">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J17">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.80439829846822</v>
+        <v>8.833753666666667</v>
       </c>
       <c r="N17">
-        <v>8.80439829846822</v>
+        <v>26.501261</v>
       </c>
       <c r="O17">
-        <v>0.07545640466397845</v>
+        <v>0.07383490545674307</v>
       </c>
       <c r="P17">
-        <v>0.07545640466397845</v>
+        <v>0.08623478508022686</v>
       </c>
       <c r="Q17">
-        <v>12.3494767916572</v>
+        <v>2315.128971729539</v>
       </c>
       <c r="R17">
-        <v>12.3494767916572</v>
+        <v>20836.16074556584</v>
       </c>
       <c r="S17">
-        <v>0.0002951773081932707</v>
+        <v>0.04434034474337151</v>
       </c>
       <c r="T17">
-        <v>0.0002951773081932707</v>
+        <v>0.05179470011043259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H18">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I18">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J18">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.0992746201589</v>
+        <v>29.34831033333333</v>
       </c>
       <c r="N18">
-        <v>29.0992746201589</v>
+        <v>88.04493099999999</v>
       </c>
       <c r="O18">
-        <v>0.2493897443904779</v>
+        <v>0.2453011257211672</v>
       </c>
       <c r="P18">
-        <v>0.2493897443904779</v>
+        <v>0.2864971482748841</v>
       </c>
       <c r="Q18">
-        <v>40.81605629293633</v>
+        <v>7691.53477534628</v>
       </c>
       <c r="R18">
-        <v>40.81605629293633</v>
+        <v>69223.81297811652</v>
       </c>
       <c r="S18">
-        <v>0.0009755857540258765</v>
+        <v>0.1473115786243665</v>
       </c>
       <c r="T18">
-        <v>0.0009755857540258765</v>
+        <v>0.1720771248352571</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H19">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I19">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J19">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.29729352037384</v>
+        <v>7.297570500000001</v>
       </c>
       <c r="N19">
-        <v>7.29729352037384</v>
+        <v>14.595141</v>
       </c>
       <c r="O19">
-        <v>0.06254005261449314</v>
+        <v>0.06099507052869114</v>
       </c>
       <c r="P19">
-        <v>0.06254005261449314</v>
+        <v>0.04749241356290961</v>
       </c>
       <c r="Q19">
-        <v>10.23553841123314</v>
+        <v>1912.529772200894</v>
       </c>
       <c r="R19">
-        <v>10.23553841123314</v>
+        <v>11475.17863320537</v>
       </c>
       <c r="S19">
-        <v>0.0002446499335241224</v>
+        <v>0.03662959190044482</v>
       </c>
       <c r="T19">
-        <v>0.0002446499335241224</v>
+        <v>0.02852509362344981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H20">
+        <v>513.335785</v>
+      </c>
+      <c r="I20">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J20">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>44.3131355</v>
+      </c>
+      <c r="N20">
+        <v>88.626271</v>
+      </c>
+      <c r="O20">
+        <v>0.3703811871594727</v>
+      </c>
+      <c r="P20">
+        <v>0.2883888216544467</v>
+      </c>
+      <c r="Q20">
+        <v>7582.50606590129</v>
+      </c>
+      <c r="R20">
+        <v>45495.03639540773</v>
+      </c>
+      <c r="S20">
+        <v>0.1452234139377554</v>
+      </c>
+      <c r="T20">
+        <v>0.1130919364362663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H21">
+        <v>513.335785</v>
+      </c>
+      <c r="I21">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J21">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.95742566666667</v>
+      </c>
+      <c r="N21">
+        <v>44.872277</v>
+      </c>
+      <c r="O21">
+        <v>0.1250182144134117</v>
+      </c>
+      <c r="P21">
+        <v>0.1460138505543343</v>
+      </c>
+      <c r="Q21">
+        <v>2559.393948725828</v>
+      </c>
+      <c r="R21">
+        <v>23034.54553853245</v>
+      </c>
+      <c r="S21">
+        <v>0.04901861252931517</v>
+      </c>
+      <c r="T21">
+        <v>0.05725946314760929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H22">
+        <v>513.335785</v>
+      </c>
+      <c r="I22">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J22">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.891776</v>
+      </c>
+      <c r="N22">
+        <v>44.675328</v>
+      </c>
+      <c r="O22">
+        <v>0.124469496720514</v>
+      </c>
+      <c r="P22">
+        <v>0.1453729808731985</v>
+      </c>
+      <c r="Q22">
+        <v>2548.160507668053</v>
+      </c>
+      <c r="R22">
+        <v>22933.44456901248</v>
+      </c>
+      <c r="S22">
+        <v>0.0488034648398178</v>
+      </c>
+      <c r="T22">
+        <v>0.05700814552431465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H23">
+        <v>513.335785</v>
+      </c>
+      <c r="I23">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J23">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.833753666666667</v>
+      </c>
+      <c r="N23">
+        <v>26.501261</v>
+      </c>
+      <c r="O23">
+        <v>0.07383490545674307</v>
+      </c>
+      <c r="P23">
+        <v>0.08623478508022686</v>
+      </c>
+      <c r="Q23">
+        <v>1511.560624324987</v>
+      </c>
+      <c r="R23">
+        <v>13604.04561892489</v>
+      </c>
+      <c r="S23">
+        <v>0.02895005850711011</v>
+      </c>
+      <c r="T23">
+        <v>0.0338170487224144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H24">
+        <v>513.335785</v>
+      </c>
+      <c r="I24">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J24">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>29.34831033333333</v>
+      </c>
+      <c r="N24">
+        <v>88.04493099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.2453011257211672</v>
+      </c>
+      <c r="P24">
+        <v>0.2864971482748841</v>
+      </c>
+      <c r="Q24">
+        <v>5021.845974461759</v>
+      </c>
+      <c r="R24">
+        <v>45196.61377015583</v>
+      </c>
+      <c r="S24">
+        <v>0.09618055169919923</v>
+      </c>
+      <c r="T24">
+        <v>0.1123501150148521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H25">
+        <v>513.335785</v>
+      </c>
+      <c r="I25">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J25">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.297570500000001</v>
+      </c>
+      <c r="N25">
+        <v>14.595141</v>
+      </c>
+      <c r="O25">
+        <v>0.06099507052869114</v>
+      </c>
+      <c r="P25">
+        <v>0.04749241356290961</v>
+      </c>
+      <c r="Q25">
+        <v>1248.701360403448</v>
+      </c>
+      <c r="R25">
+        <v>7492.208162420686</v>
+      </c>
+      <c r="S25">
+        <v>0.0239156649490861</v>
+      </c>
+      <c r="T25">
+        <v>0.01862419280001461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.770183</v>
+      </c>
+      <c r="H26">
+        <v>5.310549</v>
+      </c>
+      <c r="I26">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J26">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>44.3131355</v>
+      </c>
+      <c r="N26">
+        <v>88.626271</v>
+      </c>
+      <c r="O26">
+        <v>0.3703811871594727</v>
+      </c>
+      <c r="P26">
+        <v>0.2883888216544467</v>
+      </c>
+      <c r="Q26">
+        <v>78.4423591387965</v>
+      </c>
+      <c r="R26">
+        <v>470.654154832779</v>
+      </c>
+      <c r="S26">
+        <v>0.001502361764363911</v>
+      </c>
+      <c r="T26">
+        <v>0.001169955977157676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.770183</v>
+      </c>
+      <c r="H27">
+        <v>5.310549</v>
+      </c>
+      <c r="I27">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J27">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.95742566666667</v>
+      </c>
+      <c r="N27">
+        <v>44.872277</v>
+      </c>
+      <c r="O27">
+        <v>0.1250182144134117</v>
+      </c>
+      <c r="P27">
+        <v>0.1460138505543343</v>
+      </c>
+      <c r="Q27">
+        <v>26.477380638897</v>
+      </c>
+      <c r="R27">
+        <v>238.296425750073</v>
+      </c>
+      <c r="S27">
+        <v>0.0005071061697928231</v>
+      </c>
+      <c r="T27">
+        <v>0.0005923592191397164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.770183</v>
+      </c>
+      <c r="H28">
+        <v>5.310549</v>
+      </c>
+      <c r="I28">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J28">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.891776</v>
+      </c>
+      <c r="N28">
+        <v>44.675328</v>
+      </c>
+      <c r="O28">
+        <v>0.124469496720514</v>
+      </c>
+      <c r="P28">
+        <v>0.1453729808731985</v>
+      </c>
+      <c r="Q28">
+        <v>26.361168715008</v>
+      </c>
+      <c r="R28">
+        <v>237.250518435072</v>
+      </c>
+      <c r="S28">
+        <v>0.0005048804290969692</v>
+      </c>
+      <c r="T28">
+        <v>0.0005897592941158459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.770183</v>
+      </c>
+      <c r="H29">
+        <v>5.310549</v>
+      </c>
+      <c r="I29">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J29">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.833753666666667</v>
+      </c>
+      <c r="N29">
+        <v>26.501261</v>
+      </c>
+      <c r="O29">
+        <v>0.07383490545674307</v>
+      </c>
+      <c r="P29">
+        <v>0.08623478508022686</v>
+      </c>
+      <c r="Q29">
+        <v>15.637360566921</v>
+      </c>
+      <c r="R29">
+        <v>140.736245102289</v>
+      </c>
+      <c r="S29">
+        <v>0.000299493448045659</v>
+      </c>
+      <c r="T29">
+        <v>0.0003498433180063008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.770183</v>
+      </c>
+      <c r="H30">
+        <v>5.310549</v>
+      </c>
+      <c r="I30">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J30">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>29.34831033333333</v>
+      </c>
+      <c r="N30">
+        <v>88.04493099999999</v>
+      </c>
+      <c r="O30">
+        <v>0.2453011257211672</v>
+      </c>
+      <c r="P30">
+        <v>0.2864971482748841</v>
+      </c>
+      <c r="Q30">
+        <v>51.951880030791</v>
+      </c>
+      <c r="R30">
+        <v>467.5669202771189</v>
+      </c>
+      <c r="S30">
+        <v>0.000995004727063068</v>
+      </c>
+      <c r="T30">
+        <v>0.001162281704054604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.770183</v>
+      </c>
+      <c r="H31">
+        <v>5.310549</v>
+      </c>
+      <c r="I31">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J31">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>7.297570500000001</v>
+      </c>
+      <c r="N31">
+        <v>14.595141</v>
+      </c>
+      <c r="O31">
+        <v>0.06099507052869114</v>
+      </c>
+      <c r="P31">
+        <v>0.04749241356290961</v>
+      </c>
+      <c r="Q31">
+        <v>12.9180352404015</v>
+      </c>
+      <c r="R31">
+        <v>77.50821144240901</v>
+      </c>
+      <c r="S31">
+        <v>0.000247411761055591</v>
+      </c>
+      <c r="T31">
+        <v>0.0001926705508168008</v>
       </c>
     </row>
   </sheetData>
